--- a/test/data/worksheet.xlsx
+++ b/test/data/worksheet.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pjagga/Internal-Projects/data-genie/unit-test/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wendylam/projects/data-file-generator/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84695657-4B82-BA4A-A17E-FA6125169176}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15700" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AOCM Search" sheetId="1" r:id="rId1"/>
+    <sheet name="Search-Tab" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,34 +63,25 @@
     <t>The following is required: IdentificationType</t>
   </si>
   <si>
-    <r>
-      <t>searchAOCMOrganisation_z_error_a_1800.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Menlo"/>
-      </rPr>
-      <t>xml</t>
-    </r>
-  </si>
-  <si>
     <t>EXISTING</t>
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>existing_file1.xml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -102,10 +94,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Menlo"/>
     </font>
     <font>
       <sz val="11"/>
@@ -515,87 +503,87 @@
   </borders>
   <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -605,91 +593,94 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="79">
-    <cellStyle name="20% - Accent1 2" xfId="1"/>
-    <cellStyle name="20% - Accent2 2" xfId="2"/>
-    <cellStyle name="20% - Accent3 2" xfId="3"/>
-    <cellStyle name="20% - Accent4 2" xfId="4"/>
-    <cellStyle name="20% - Accent5 2" xfId="5"/>
-    <cellStyle name="20% - Accent6 2" xfId="6"/>
-    <cellStyle name="40% - Accent1 2" xfId="7"/>
-    <cellStyle name="40% - Accent2 2" xfId="8"/>
-    <cellStyle name="40% - Accent3 2" xfId="9"/>
-    <cellStyle name="40% - Accent4 2" xfId="10"/>
-    <cellStyle name="40% - Accent5 2" xfId="11"/>
-    <cellStyle name="40% - Accent6 2" xfId="12"/>
-    <cellStyle name="60% - Accent1 2" xfId="13"/>
-    <cellStyle name="60% - Accent2 2" xfId="14"/>
-    <cellStyle name="60% - Accent3 2" xfId="15"/>
-    <cellStyle name="60% - Accent4 2" xfId="16"/>
-    <cellStyle name="60% - Accent5 2" xfId="17"/>
-    <cellStyle name="60% - Accent6 2" xfId="18"/>
-    <cellStyle name="Accent1 2" xfId="19"/>
-    <cellStyle name="Accent2 2" xfId="20"/>
-    <cellStyle name="Accent3 2" xfId="21"/>
-    <cellStyle name="Accent4 2" xfId="22"/>
-    <cellStyle name="Accent5 2" xfId="23"/>
-    <cellStyle name="Accent6 2" xfId="24"/>
-    <cellStyle name="Bad 2" xfId="25"/>
-    <cellStyle name="Calculation 2" xfId="26"/>
-    <cellStyle name="Calculation 3" xfId="27"/>
-    <cellStyle name="Check Cell 2" xfId="28"/>
-    <cellStyle name="Currency 2" xfId="29"/>
-    <cellStyle name="Explanatory Text 2" xfId="30"/>
-    <cellStyle name="Good 2" xfId="31"/>
-    <cellStyle name="Good 3" xfId="32"/>
-    <cellStyle name="Heading 1 2" xfId="33"/>
-    <cellStyle name="Heading 2 2" xfId="34"/>
-    <cellStyle name="Heading 3 2" xfId="35"/>
-    <cellStyle name="Heading 4 2" xfId="36"/>
-    <cellStyle name="Hyperlink 2" xfId="37"/>
-    <cellStyle name="Input 2" xfId="38"/>
-    <cellStyle name="Input 3" xfId="39"/>
-    <cellStyle name="Linked Cell 2" xfId="40"/>
-    <cellStyle name="Neutral 2" xfId="41"/>
+    <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Calculation 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Calculation 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Check Cell 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Currency 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Good 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Good 3" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Heading 1 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Heading 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Heading 3 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Heading 4 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Input 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Input 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Neutral 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 100" xfId="42"/>
-    <cellStyle name="Normal 101" xfId="43"/>
-    <cellStyle name="Normal 101 2" xfId="44"/>
-    <cellStyle name="Normal 107 2" xfId="45"/>
-    <cellStyle name="Normal 11 2 2" xfId="46"/>
-    <cellStyle name="Normal 113" xfId="47"/>
-    <cellStyle name="Normal 2" xfId="48"/>
-    <cellStyle name="Normal 2 2" xfId="49"/>
-    <cellStyle name="Normal 2 3" xfId="50"/>
-    <cellStyle name="Normal 2 3 2" xfId="51"/>
-    <cellStyle name="Normal 2 4" xfId="52"/>
-    <cellStyle name="Normal 2_Data" xfId="53"/>
-    <cellStyle name="Normal 3" xfId="54"/>
-    <cellStyle name="Normal 3 2" xfId="55"/>
-    <cellStyle name="Normal 4" xfId="56"/>
-    <cellStyle name="Normal 4 2" xfId="57"/>
-    <cellStyle name="Normal 4 2 2" xfId="58"/>
-    <cellStyle name="Normal 4 3" xfId="59"/>
-    <cellStyle name="Normal 5" xfId="60"/>
-    <cellStyle name="Note 2" xfId="61"/>
-    <cellStyle name="Note 2 2" xfId="62"/>
-    <cellStyle name="Note 3" xfId="63"/>
-    <cellStyle name="Note 3 2" xfId="64"/>
-    <cellStyle name="Output 2" xfId="65"/>
-    <cellStyle name="Output 2 2" xfId="66"/>
-    <cellStyle name="Output 3" xfId="67"/>
-    <cellStyle name="Output 3 2" xfId="68"/>
-    <cellStyle name="Title 2" xfId="69"/>
-    <cellStyle name="Total 2" xfId="70"/>
-    <cellStyle name="Total 2 2" xfId="71"/>
-    <cellStyle name="Total 3" xfId="72"/>
-    <cellStyle name="Total 3 2" xfId="73"/>
-    <cellStyle name="Warning Text 2" xfId="74"/>
-    <cellStyle name="콤마 [0]_파라미터" xfId="75"/>
-    <cellStyle name="콤마_파라미터" xfId="76"/>
-    <cellStyle name="표준_(050321)_AS코드집" xfId="77"/>
-    <cellStyle name="하이퍼링크_SFG Cards NBSM Strategy Design Specification v1.8" xfId="78"/>
+    <cellStyle name="Normal 100" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 101" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 101 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Normal 107 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Normal 11 2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Normal 113" xfId="47" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normal 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Normal 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Normal 2 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Normal 2 3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Normal 2 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Normal 2_Data" xfId="53" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Normal 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Normal 3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Normal 4" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Normal 4 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Normal 4 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Normal 5" xfId="60" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Note 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Note 2 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Note 3" xfId="63" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Note 3 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Output 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Output 2 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Output 3" xfId="67" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Output 3 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Title 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Total 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Total 2 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Total 3" xfId="72" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Total 3 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Warning Text 2" xfId="74" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="콤마 [0]_파라미터" xfId="75" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="콤마_파라미터" xfId="76" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="표준_(050321)_AS코드집" xfId="77" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="하이퍼링크_SFG Cards NBSM Strategy Design Specification v1.8" xfId="78" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -957,24 +948,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet15" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -997,7 +988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33">
       <c r="C2">
         <v>0</v>
       </c>
@@ -1023,21 +1014,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33">
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
